--- a/Label Template/Otolith Vial/otolith label.xlsx
+++ b/Label Template/Otolith Vial/otolith label.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stokes\Documents\GitHub\triploid-walleye-labwork\Label Template\Otolith Vial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llegg\Documents\GitHub\triploid-walleye-labwork\Label Template\Otolith Vial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -52,904 +52,904 @@
     <t>Otolith</t>
   </si>
   <si>
-    <t>NAR031620001</t>
-  </si>
-  <si>
-    <t>NAR031620002</t>
-  </si>
-  <si>
-    <t>NAR031620003</t>
-  </si>
-  <si>
-    <t>NAR031620004</t>
-  </si>
-  <si>
-    <t>NAR031620005</t>
-  </si>
-  <si>
-    <t>NAR031620006</t>
-  </si>
-  <si>
-    <t>NAR031620007</t>
-  </si>
-  <si>
-    <t>NAR031620008</t>
-  </si>
-  <si>
-    <t>NAR031620009</t>
-  </si>
-  <si>
-    <t>NAR031620010</t>
-  </si>
-  <si>
-    <t>NAR031620011</t>
-  </si>
-  <si>
-    <t>NAR031620012</t>
-  </si>
-  <si>
-    <t>NAR031620013</t>
-  </si>
-  <si>
-    <t>NAR031620014</t>
-  </si>
-  <si>
-    <t>NAR031620015</t>
-  </si>
-  <si>
-    <t>NAR031620016</t>
-  </si>
-  <si>
-    <t>NAR031620017</t>
-  </si>
-  <si>
-    <t>NAR031620018</t>
-  </si>
-  <si>
-    <t>NAR031620019</t>
-  </si>
-  <si>
-    <t>NAR031620020</t>
-  </si>
-  <si>
-    <t>NAR031620021</t>
-  </si>
-  <si>
-    <t>NAR031620022</t>
-  </si>
-  <si>
-    <t>NAR031620023</t>
-  </si>
-  <si>
-    <t>NAR031620024</t>
-  </si>
-  <si>
-    <t>NAR031620025</t>
-  </si>
-  <si>
-    <t>NAR031620026</t>
-  </si>
-  <si>
-    <t>NAR031620027</t>
-  </si>
-  <si>
-    <t>NAR031620028</t>
-  </si>
-  <si>
-    <t>NAR031620029</t>
-  </si>
-  <si>
-    <t>NAR031620030</t>
-  </si>
-  <si>
-    <t>NAR031620031</t>
-  </si>
-  <si>
-    <t>NAR031620032</t>
-  </si>
-  <si>
-    <t>NAR031620033</t>
-  </si>
-  <si>
-    <t>NAR031620034</t>
-  </si>
-  <si>
-    <t>NAR031620035</t>
-  </si>
-  <si>
-    <t>NAR031620036</t>
-  </si>
-  <si>
-    <t>NAR031620037</t>
-  </si>
-  <si>
-    <t>NAR031620038</t>
-  </si>
-  <si>
-    <t>NAR031620039</t>
-  </si>
-  <si>
-    <t>NAR031620040</t>
-  </si>
-  <si>
-    <t>NAR031620041</t>
-  </si>
-  <si>
-    <t>NAR031620042</t>
-  </si>
-  <si>
-    <t>NAR031620043</t>
-  </si>
-  <si>
-    <t>NAR031620044</t>
-  </si>
-  <si>
-    <t>NAR031620045</t>
-  </si>
-  <si>
-    <t>NAR031620046</t>
-  </si>
-  <si>
-    <t>NAR031620047</t>
-  </si>
-  <si>
-    <t>NAR031620048</t>
-  </si>
-  <si>
-    <t>NAR031620049</t>
-  </si>
-  <si>
-    <t>NAR031620050</t>
-  </si>
-  <si>
-    <t>NAR031720001</t>
-  </si>
-  <si>
-    <t>NAR031720002</t>
-  </si>
-  <si>
-    <t>NAR031720003</t>
-  </si>
-  <si>
-    <t>NAR031720004</t>
-  </si>
-  <si>
-    <t>NAR031720005</t>
-  </si>
-  <si>
-    <t>NAR031720006</t>
-  </si>
-  <si>
-    <t>NAR031720007</t>
-  </si>
-  <si>
-    <t>NAR031720008</t>
-  </si>
-  <si>
-    <t>NAR031720009</t>
-  </si>
-  <si>
-    <t>NAR031720010</t>
-  </si>
-  <si>
-    <t>NAR031720011</t>
-  </si>
-  <si>
-    <t>NAR031720012</t>
-  </si>
-  <si>
-    <t>NAR031720013</t>
-  </si>
-  <si>
-    <t>NAR031720014</t>
-  </si>
-  <si>
-    <t>NAR031720015</t>
-  </si>
-  <si>
-    <t>NAR031720016</t>
-  </si>
-  <si>
-    <t>NAR031720017</t>
-  </si>
-  <si>
-    <t>NAR031720018</t>
-  </si>
-  <si>
-    <t>NAR031720019</t>
-  </si>
-  <si>
-    <t>NAR031720020</t>
-  </si>
-  <si>
-    <t>NAR031720021</t>
-  </si>
-  <si>
-    <t>NAR031720022</t>
-  </si>
-  <si>
-    <t>NAR031720023</t>
-  </si>
-  <si>
-    <t>NAR031720024</t>
-  </si>
-  <si>
-    <t>NAR031720025</t>
-  </si>
-  <si>
-    <t>NAR031720026</t>
-  </si>
-  <si>
-    <t>NAR031720027</t>
-  </si>
-  <si>
-    <t>NAR031720028</t>
-  </si>
-  <si>
-    <t>NAR031720029</t>
-  </si>
-  <si>
-    <t>NAR031720030</t>
-  </si>
-  <si>
-    <t>NAR031720031</t>
-  </si>
-  <si>
-    <t>NAR031720032</t>
-  </si>
-  <si>
-    <t>NAR031720033</t>
-  </si>
-  <si>
-    <t>NAR031720034</t>
-  </si>
-  <si>
-    <t>NAR031720035</t>
-  </si>
-  <si>
-    <t>NAR031720036</t>
-  </si>
-  <si>
-    <t>NAR031720037</t>
-  </si>
-  <si>
-    <t>NAR031720038</t>
-  </si>
-  <si>
-    <t>NAR031720039</t>
-  </si>
-  <si>
-    <t>NAR031720040</t>
-  </si>
-  <si>
-    <t>NAR031720041</t>
-  </si>
-  <si>
-    <t>NAR031720042</t>
-  </si>
-  <si>
-    <t>NAR031720043</t>
-  </si>
-  <si>
-    <t>NAR031720044</t>
-  </si>
-  <si>
-    <t>NAR031720045</t>
-  </si>
-  <si>
-    <t>NAR031720046</t>
-  </si>
-  <si>
-    <t>NAR031720047</t>
-  </si>
-  <si>
-    <t>NAR031720048</t>
-  </si>
-  <si>
-    <t>NAR031720049</t>
-  </si>
-  <si>
-    <t>NAR031720050</t>
-  </si>
-  <si>
-    <t>NAR031820001</t>
-  </si>
-  <si>
-    <t>NAR031820002</t>
-  </si>
-  <si>
-    <t>NAR031820003</t>
-  </si>
-  <si>
-    <t>NAR031820004</t>
-  </si>
-  <si>
-    <t>NAR031820005</t>
-  </si>
-  <si>
-    <t>NAR031820006</t>
-  </si>
-  <si>
-    <t>NAR031820007</t>
-  </si>
-  <si>
-    <t>NAR031820008</t>
-  </si>
-  <si>
-    <t>NAR031820009</t>
-  </si>
-  <si>
-    <t>NAR031820010</t>
-  </si>
-  <si>
-    <t>NAR031820011</t>
-  </si>
-  <si>
-    <t>NAR031820012</t>
-  </si>
-  <si>
-    <t>NAR031820013</t>
-  </si>
-  <si>
-    <t>NAR031820014</t>
-  </si>
-  <si>
-    <t>NAR031820015</t>
-  </si>
-  <si>
-    <t>NAR031820016</t>
-  </si>
-  <si>
-    <t>NAR031820017</t>
-  </si>
-  <si>
-    <t>NAR031820018</t>
-  </si>
-  <si>
-    <t>NAR031820019</t>
-  </si>
-  <si>
-    <t>NAR031820020</t>
-  </si>
-  <si>
-    <t>NAR031820021</t>
-  </si>
-  <si>
-    <t>NAR031820022</t>
-  </si>
-  <si>
-    <t>NAR031820023</t>
-  </si>
-  <si>
-    <t>NAR031820024</t>
-  </si>
-  <si>
-    <t>NAR031820025</t>
-  </si>
-  <si>
-    <t>NAR031820026</t>
-  </si>
-  <si>
-    <t>NAR031820027</t>
-  </si>
-  <si>
-    <t>NAR031820028</t>
-  </si>
-  <si>
-    <t>NAR031820029</t>
-  </si>
-  <si>
-    <t>NAR031820030</t>
-  </si>
-  <si>
-    <t>NAR031820031</t>
-  </si>
-  <si>
-    <t>NAR031820032</t>
-  </si>
-  <si>
-    <t>NAR031820033</t>
-  </si>
-  <si>
-    <t>NAR031820034</t>
-  </si>
-  <si>
-    <t>NAR031820035</t>
-  </si>
-  <si>
-    <t>NAR031820036</t>
-  </si>
-  <si>
-    <t>NAR031820037</t>
-  </si>
-  <si>
-    <t>NAR031820038</t>
-  </si>
-  <si>
-    <t>NAR031820039</t>
-  </si>
-  <si>
-    <t>NAR031820040</t>
-  </si>
-  <si>
-    <t>NAR031820041</t>
-  </si>
-  <si>
-    <t>NAR031820042</t>
-  </si>
-  <si>
-    <t>NAR031820043</t>
-  </si>
-  <si>
-    <t>NAR031820044</t>
-  </si>
-  <si>
-    <t>NAR031820045</t>
-  </si>
-  <si>
-    <t>NAR031820046</t>
-  </si>
-  <si>
-    <t>NAR031820047</t>
-  </si>
-  <si>
-    <t>NAR031820048</t>
-  </si>
-  <si>
-    <t>NAR031820049</t>
-  </si>
-  <si>
-    <t>NAR031820050</t>
-  </si>
-  <si>
-    <t>NAR031920001</t>
-  </si>
-  <si>
-    <t>NAR031920002</t>
-  </si>
-  <si>
-    <t>NAR031920003</t>
-  </si>
-  <si>
-    <t>NAR031920004</t>
-  </si>
-  <si>
-    <t>NAR031920005</t>
-  </si>
-  <si>
-    <t>NAR031920006</t>
-  </si>
-  <si>
-    <t>NAR031920007</t>
-  </si>
-  <si>
-    <t>NAR031920008</t>
-  </si>
-  <si>
-    <t>NAR031920009</t>
-  </si>
-  <si>
-    <t>NAR031920010</t>
-  </si>
-  <si>
-    <t>NAR031920011</t>
-  </si>
-  <si>
-    <t>NAR031920012</t>
-  </si>
-  <si>
-    <t>NAR031920013</t>
-  </si>
-  <si>
-    <t>NAR031920014</t>
-  </si>
-  <si>
-    <t>NAR031920015</t>
-  </si>
-  <si>
-    <t>NAR031920016</t>
-  </si>
-  <si>
-    <t>NAR031920017</t>
-  </si>
-  <si>
-    <t>NAR031920018</t>
-  </si>
-  <si>
-    <t>NAR031920019</t>
-  </si>
-  <si>
-    <t>NAR031920020</t>
-  </si>
-  <si>
-    <t>NAR031920021</t>
-  </si>
-  <si>
-    <t>NAR031920022</t>
-  </si>
-  <si>
-    <t>NAR031920023</t>
-  </si>
-  <si>
-    <t>NAR031920024</t>
-  </si>
-  <si>
-    <t>NAR031920025</t>
-  </si>
-  <si>
-    <t>NAR031920026</t>
-  </si>
-  <si>
-    <t>NAR031920027</t>
-  </si>
-  <si>
-    <t>NAR031920028</t>
-  </si>
-  <si>
-    <t>NAR031920029</t>
-  </si>
-  <si>
-    <t>NAR031920030</t>
-  </si>
-  <si>
-    <t>NAR031920031</t>
-  </si>
-  <si>
-    <t>NAR031920032</t>
-  </si>
-  <si>
-    <t>NAR031920033</t>
-  </si>
-  <si>
-    <t>NAR031920034</t>
-  </si>
-  <si>
-    <t>NAR031920035</t>
-  </si>
-  <si>
-    <t>NAR031920036</t>
-  </si>
-  <si>
-    <t>NAR031920037</t>
-  </si>
-  <si>
-    <t>NAR031920038</t>
-  </si>
-  <si>
-    <t>NAR031920039</t>
-  </si>
-  <si>
-    <t>NAR031920040</t>
-  </si>
-  <si>
-    <t>NAR031920041</t>
-  </si>
-  <si>
-    <t>NAR031920042</t>
-  </si>
-  <si>
-    <t>NAR031920043</t>
-  </si>
-  <si>
-    <t>NAR031920044</t>
-  </si>
-  <si>
-    <t>NAR031920045</t>
-  </si>
-  <si>
-    <t>NAR031920046</t>
-  </si>
-  <si>
-    <t>NAR031920047</t>
-  </si>
-  <si>
-    <t>NAR031920048</t>
-  </si>
-  <si>
-    <t>NAR031920049</t>
-  </si>
-  <si>
-    <t>NAR031920050</t>
-  </si>
-  <si>
-    <t>NAR032020001</t>
-  </si>
-  <si>
-    <t>NAR032020002</t>
-  </si>
-  <si>
-    <t>NAR032020003</t>
-  </si>
-  <si>
-    <t>NAR032020004</t>
-  </si>
-  <si>
-    <t>NAR032020005</t>
-  </si>
-  <si>
-    <t>NAR032020006</t>
-  </si>
-  <si>
-    <t>NAR032020007</t>
-  </si>
-  <si>
-    <t>NAR032020008</t>
-  </si>
-  <si>
-    <t>NAR032020009</t>
-  </si>
-  <si>
-    <t>NAR032020010</t>
-  </si>
-  <si>
-    <t>NAR032020011</t>
-  </si>
-  <si>
-    <t>NAR032020012</t>
-  </si>
-  <si>
-    <t>NAR032020013</t>
-  </si>
-  <si>
-    <t>NAR032020014</t>
-  </si>
-  <si>
-    <t>NAR032020015</t>
-  </si>
-  <si>
-    <t>NAR032020016</t>
-  </si>
-  <si>
-    <t>NAR032020017</t>
-  </si>
-  <si>
-    <t>NAR032020018</t>
-  </si>
-  <si>
-    <t>NAR032020019</t>
-  </si>
-  <si>
-    <t>NAR032020020</t>
-  </si>
-  <si>
-    <t>NAR032020021</t>
-  </si>
-  <si>
-    <t>NAR032020022</t>
-  </si>
-  <si>
-    <t>NAR032020023</t>
-  </si>
-  <si>
-    <t>NAR032020024</t>
-  </si>
-  <si>
-    <t>NAR032020025</t>
-  </si>
-  <si>
-    <t>NAR032020026</t>
-  </si>
-  <si>
-    <t>NAR032020027</t>
-  </si>
-  <si>
-    <t>NAR032020028</t>
-  </si>
-  <si>
-    <t>NAR032020029</t>
-  </si>
-  <si>
-    <t>NAR032020030</t>
-  </si>
-  <si>
-    <t>NAR032020031</t>
-  </si>
-  <si>
-    <t>NAR032020032</t>
-  </si>
-  <si>
-    <t>NAR032020033</t>
-  </si>
-  <si>
-    <t>NAR032020034</t>
-  </si>
-  <si>
-    <t>NAR032020035</t>
-  </si>
-  <si>
-    <t>NAR032020036</t>
-  </si>
-  <si>
-    <t>NAR032020037</t>
-  </si>
-  <si>
-    <t>NAR032020038</t>
-  </si>
-  <si>
-    <t>NAR032020039</t>
-  </si>
-  <si>
-    <t>NAR032020040</t>
-  </si>
-  <si>
-    <t>NAR032020041</t>
-  </si>
-  <si>
-    <t>NAR032020042</t>
-  </si>
-  <si>
-    <t>NAR032020043</t>
-  </si>
-  <si>
-    <t>NAR032020044</t>
-  </si>
-  <si>
-    <t>NAR032020045</t>
-  </si>
-  <si>
-    <t>NAR032020046</t>
-  </si>
-  <si>
-    <t>NAR032020047</t>
-  </si>
-  <si>
-    <t>NAR032020048</t>
-  </si>
-  <si>
-    <t>NAR032020049</t>
-  </si>
-  <si>
-    <t>NAR032020050</t>
-  </si>
-  <si>
-    <t>NAR032120001</t>
-  </si>
-  <si>
-    <t>NAR032120002</t>
-  </si>
-  <si>
-    <t>NAR032120003</t>
-  </si>
-  <si>
-    <t>NAR032120004</t>
-  </si>
-  <si>
-    <t>NAR032120005</t>
-  </si>
-  <si>
-    <t>NAR032120006</t>
-  </si>
-  <si>
-    <t>NAR032120007</t>
-  </si>
-  <si>
-    <t>NAR032120008</t>
-  </si>
-  <si>
-    <t>NAR032120009</t>
-  </si>
-  <si>
-    <t>NAR032120010</t>
-  </si>
-  <si>
-    <t>NAR032120011</t>
-  </si>
-  <si>
-    <t>NAR032120012</t>
-  </si>
-  <si>
-    <t>NAR032120013</t>
-  </si>
-  <si>
-    <t>NAR032120014</t>
-  </si>
-  <si>
-    <t>NAR032120015</t>
-  </si>
-  <si>
-    <t>NAR032120016</t>
-  </si>
-  <si>
-    <t>NAR032120017</t>
-  </si>
-  <si>
-    <t>NAR032120018</t>
-  </si>
-  <si>
-    <t>NAR032120019</t>
-  </si>
-  <si>
-    <t>NAR032120020</t>
-  </si>
-  <si>
-    <t>NAR032120021</t>
-  </si>
-  <si>
-    <t>NAR032120022</t>
-  </si>
-  <si>
-    <t>NAR032120023</t>
-  </si>
-  <si>
-    <t>NAR032120024</t>
-  </si>
-  <si>
-    <t>NAR032120025</t>
-  </si>
-  <si>
-    <t>NAR032120026</t>
-  </si>
-  <si>
-    <t>NAR032120027</t>
-  </si>
-  <si>
-    <t>NAR032120028</t>
-  </si>
-  <si>
-    <t>NAR032120029</t>
-  </si>
-  <si>
-    <t>NAR032120030</t>
-  </si>
-  <si>
-    <t>NAR032120031</t>
-  </si>
-  <si>
-    <t>NAR032120032</t>
-  </si>
-  <si>
-    <t>NAR032120033</t>
-  </si>
-  <si>
-    <t>NAR032120034</t>
-  </si>
-  <si>
-    <t>NAR032120035</t>
-  </si>
-  <si>
-    <t>NAR032120036</t>
-  </si>
-  <si>
-    <t>NAR032120037</t>
-  </si>
-  <si>
-    <t>NAR032120038</t>
-  </si>
-  <si>
-    <t>NAR032120039</t>
-  </si>
-  <si>
-    <t>NAR032120040</t>
-  </si>
-  <si>
-    <t>NAR032120041</t>
-  </si>
-  <si>
-    <t>NAR032120042</t>
-  </si>
-  <si>
-    <t>NAR032120043</t>
-  </si>
-  <si>
-    <t>NAR032120044</t>
-  </si>
-  <si>
-    <t>NAR032120045</t>
-  </si>
-  <si>
-    <t>NAR032120046</t>
-  </si>
-  <si>
-    <t>NAR032120047</t>
-  </si>
-  <si>
-    <t>NAR032120048</t>
-  </si>
-  <si>
-    <t>NAR032120049</t>
-  </si>
-  <si>
-    <t>NAR032120050</t>
+    <t>NAR033020001</t>
+  </si>
+  <si>
+    <t>NAR033020002</t>
+  </si>
+  <si>
+    <t>NAR033020003</t>
+  </si>
+  <si>
+    <t>NAR033020004</t>
+  </si>
+  <si>
+    <t>NAR033020005</t>
+  </si>
+  <si>
+    <t>NAR033020006</t>
+  </si>
+  <si>
+    <t>NAR033020007</t>
+  </si>
+  <si>
+    <t>NAR033020008</t>
+  </si>
+  <si>
+    <t>NAR033020009</t>
+  </si>
+  <si>
+    <t>NAR033020010</t>
+  </si>
+  <si>
+    <t>NAR033020011</t>
+  </si>
+  <si>
+    <t>NAR033020012</t>
+  </si>
+  <si>
+    <t>NAR033020013</t>
+  </si>
+  <si>
+    <t>NAR033020014</t>
+  </si>
+  <si>
+    <t>NAR033020015</t>
+  </si>
+  <si>
+    <t>NAR033020016</t>
+  </si>
+  <si>
+    <t>NAR033020017</t>
+  </si>
+  <si>
+    <t>NAR033020018</t>
+  </si>
+  <si>
+    <t>NAR033020019</t>
+  </si>
+  <si>
+    <t>NAR033020020</t>
+  </si>
+  <si>
+    <t>NAR033020021</t>
+  </si>
+  <si>
+    <t>NAR033020022</t>
+  </si>
+  <si>
+    <t>NAR033020023</t>
+  </si>
+  <si>
+    <t>NAR033020024</t>
+  </si>
+  <si>
+    <t>NAR033020025</t>
+  </si>
+  <si>
+    <t>NAR033020026</t>
+  </si>
+  <si>
+    <t>NAR033020027</t>
+  </si>
+  <si>
+    <t>NAR033020028</t>
+  </si>
+  <si>
+    <t>NAR033020029</t>
+  </si>
+  <si>
+    <t>NAR033020030</t>
+  </si>
+  <si>
+    <t>NAR033020031</t>
+  </si>
+  <si>
+    <t>NAR033020032</t>
+  </si>
+  <si>
+    <t>NAR033020033</t>
+  </si>
+  <si>
+    <t>NAR033020034</t>
+  </si>
+  <si>
+    <t>NAR033020035</t>
+  </si>
+  <si>
+    <t>NAR033020036</t>
+  </si>
+  <si>
+    <t>NAR033020037</t>
+  </si>
+  <si>
+    <t>NAR033020038</t>
+  </si>
+  <si>
+    <t>NAR033020039</t>
+  </si>
+  <si>
+    <t>NAR033020040</t>
+  </si>
+  <si>
+    <t>NAR033020041</t>
+  </si>
+  <si>
+    <t>NAR033020042</t>
+  </si>
+  <si>
+    <t>NAR033020043</t>
+  </si>
+  <si>
+    <t>NAR033020044</t>
+  </si>
+  <si>
+    <t>NAR033020045</t>
+  </si>
+  <si>
+    <t>NAR033020046</t>
+  </si>
+  <si>
+    <t>NAR033020047</t>
+  </si>
+  <si>
+    <t>NAR033020048</t>
+  </si>
+  <si>
+    <t>NAR033020049</t>
+  </si>
+  <si>
+    <t>NAR033020050</t>
+  </si>
+  <si>
+    <t>NAR033120001</t>
+  </si>
+  <si>
+    <t>NAR033120002</t>
+  </si>
+  <si>
+    <t>NAR033120003</t>
+  </si>
+  <si>
+    <t>NAR033120004</t>
+  </si>
+  <si>
+    <t>NAR033120005</t>
+  </si>
+  <si>
+    <t>NAR033120006</t>
+  </si>
+  <si>
+    <t>NAR033120007</t>
+  </si>
+  <si>
+    <t>NAR033120008</t>
+  </si>
+  <si>
+    <t>NAR033120009</t>
+  </si>
+  <si>
+    <t>NAR033120010</t>
+  </si>
+  <si>
+    <t>NAR033120011</t>
+  </si>
+  <si>
+    <t>NAR033120012</t>
+  </si>
+  <si>
+    <t>NAR033120013</t>
+  </si>
+  <si>
+    <t>NAR033120014</t>
+  </si>
+  <si>
+    <t>NAR033120015</t>
+  </si>
+  <si>
+    <t>NAR033120016</t>
+  </si>
+  <si>
+    <t>NAR033120017</t>
+  </si>
+  <si>
+    <t>NAR033120018</t>
+  </si>
+  <si>
+    <t>NAR033120019</t>
+  </si>
+  <si>
+    <t>NAR033120020</t>
+  </si>
+  <si>
+    <t>NAR033120021</t>
+  </si>
+  <si>
+    <t>NAR033120022</t>
+  </si>
+  <si>
+    <t>NAR033120023</t>
+  </si>
+  <si>
+    <t>NAR033120024</t>
+  </si>
+  <si>
+    <t>NAR033120025</t>
+  </si>
+  <si>
+    <t>NAR033120026</t>
+  </si>
+  <si>
+    <t>NAR033120027</t>
+  </si>
+  <si>
+    <t>NAR033120028</t>
+  </si>
+  <si>
+    <t>NAR033120029</t>
+  </si>
+  <si>
+    <t>NAR033120030</t>
+  </si>
+  <si>
+    <t>NAR033120031</t>
+  </si>
+  <si>
+    <t>NAR033120032</t>
+  </si>
+  <si>
+    <t>NAR033120033</t>
+  </si>
+  <si>
+    <t>NAR033120034</t>
+  </si>
+  <si>
+    <t>NAR033120035</t>
+  </si>
+  <si>
+    <t>NAR033120036</t>
+  </si>
+  <si>
+    <t>NAR033120037</t>
+  </si>
+  <si>
+    <t>NAR033120038</t>
+  </si>
+  <si>
+    <t>NAR033120039</t>
+  </si>
+  <si>
+    <t>NAR033120040</t>
+  </si>
+  <si>
+    <t>NAR033120041</t>
+  </si>
+  <si>
+    <t>NAR033120042</t>
+  </si>
+  <si>
+    <t>NAR033120043</t>
+  </si>
+  <si>
+    <t>NAR033120044</t>
+  </si>
+  <si>
+    <t>NAR033120045</t>
+  </si>
+  <si>
+    <t>NAR033120046</t>
+  </si>
+  <si>
+    <t>NAR033120047</t>
+  </si>
+  <si>
+    <t>NAR033120048</t>
+  </si>
+  <si>
+    <t>NAR033120049</t>
+  </si>
+  <si>
+    <t>NAR033120050</t>
+  </si>
+  <si>
+    <t>NAR040120001</t>
+  </si>
+  <si>
+    <t>NAR040120002</t>
+  </si>
+  <si>
+    <t>NAR040120003</t>
+  </si>
+  <si>
+    <t>NAR040120004</t>
+  </si>
+  <si>
+    <t>NAR040120005</t>
+  </si>
+  <si>
+    <t>NAR040120006</t>
+  </si>
+  <si>
+    <t>NAR040120007</t>
+  </si>
+  <si>
+    <t>NAR040120008</t>
+  </si>
+  <si>
+    <t>NAR040120009</t>
+  </si>
+  <si>
+    <t>NAR040120010</t>
+  </si>
+  <si>
+    <t>NAR040120011</t>
+  </si>
+  <si>
+    <t>NAR040120012</t>
+  </si>
+  <si>
+    <t>NAR040120013</t>
+  </si>
+  <si>
+    <t>NAR040120014</t>
+  </si>
+  <si>
+    <t>NAR040120015</t>
+  </si>
+  <si>
+    <t>NAR040120016</t>
+  </si>
+  <si>
+    <t>NAR040120017</t>
+  </si>
+  <si>
+    <t>NAR040120018</t>
+  </si>
+  <si>
+    <t>NAR040120019</t>
+  </si>
+  <si>
+    <t>NAR040120020</t>
+  </si>
+  <si>
+    <t>NAR040120021</t>
+  </si>
+  <si>
+    <t>NAR040120022</t>
+  </si>
+  <si>
+    <t>NAR040120023</t>
+  </si>
+  <si>
+    <t>NAR040120024</t>
+  </si>
+  <si>
+    <t>NAR040120025</t>
+  </si>
+  <si>
+    <t>NAR040120026</t>
+  </si>
+  <si>
+    <t>NAR040120027</t>
+  </si>
+  <si>
+    <t>NAR040120028</t>
+  </si>
+  <si>
+    <t>NAR040120029</t>
+  </si>
+  <si>
+    <t>NAR040120030</t>
+  </si>
+  <si>
+    <t>NAR040120031</t>
+  </si>
+  <si>
+    <t>NAR040120032</t>
+  </si>
+  <si>
+    <t>NAR040120033</t>
+  </si>
+  <si>
+    <t>NAR040120034</t>
+  </si>
+  <si>
+    <t>NAR040120035</t>
+  </si>
+  <si>
+    <t>NAR040120036</t>
+  </si>
+  <si>
+    <t>NAR040120037</t>
+  </si>
+  <si>
+    <t>NAR040120038</t>
+  </si>
+  <si>
+    <t>NAR040120039</t>
+  </si>
+  <si>
+    <t>NAR040120040</t>
+  </si>
+  <si>
+    <t>NAR040120041</t>
+  </si>
+  <si>
+    <t>NAR040120042</t>
+  </si>
+  <si>
+    <t>NAR040120043</t>
+  </si>
+  <si>
+    <t>NAR040120044</t>
+  </si>
+  <si>
+    <t>NAR040120045</t>
+  </si>
+  <si>
+    <t>NAR040120046</t>
+  </si>
+  <si>
+    <t>NAR040120047</t>
+  </si>
+  <si>
+    <t>NAR040120048</t>
+  </si>
+  <si>
+    <t>NAR040120049</t>
+  </si>
+  <si>
+    <t>NAR040120050</t>
+  </si>
+  <si>
+    <t>NAR040220001</t>
+  </si>
+  <si>
+    <t>NAR040220002</t>
+  </si>
+  <si>
+    <t>NAR040220003</t>
+  </si>
+  <si>
+    <t>NAR040220004</t>
+  </si>
+  <si>
+    <t>NAR040220005</t>
+  </si>
+  <si>
+    <t>NAR040220006</t>
+  </si>
+  <si>
+    <t>NAR040220007</t>
+  </si>
+  <si>
+    <t>NAR040220008</t>
+  </si>
+  <si>
+    <t>NAR040220009</t>
+  </si>
+  <si>
+    <t>NAR040220010</t>
+  </si>
+  <si>
+    <t>NAR040220011</t>
+  </si>
+  <si>
+    <t>NAR040220012</t>
+  </si>
+  <si>
+    <t>NAR040220013</t>
+  </si>
+  <si>
+    <t>NAR040220014</t>
+  </si>
+  <si>
+    <t>NAR040220015</t>
+  </si>
+  <si>
+    <t>NAR040220016</t>
+  </si>
+  <si>
+    <t>NAR040220017</t>
+  </si>
+  <si>
+    <t>NAR040220018</t>
+  </si>
+  <si>
+    <t>NAR040220019</t>
+  </si>
+  <si>
+    <t>NAR040220020</t>
+  </si>
+  <si>
+    <t>NAR040220021</t>
+  </si>
+  <si>
+    <t>NAR040220022</t>
+  </si>
+  <si>
+    <t>NAR040220023</t>
+  </si>
+  <si>
+    <t>NAR040220024</t>
+  </si>
+  <si>
+    <t>NAR040220025</t>
+  </si>
+  <si>
+    <t>NAR040220026</t>
+  </si>
+  <si>
+    <t>NAR040220027</t>
+  </si>
+  <si>
+    <t>NAR040220028</t>
+  </si>
+  <si>
+    <t>NAR040220029</t>
+  </si>
+  <si>
+    <t>NAR040220030</t>
+  </si>
+  <si>
+    <t>NAR040220031</t>
+  </si>
+  <si>
+    <t>NAR040220032</t>
+  </si>
+  <si>
+    <t>NAR040220033</t>
+  </si>
+  <si>
+    <t>NAR040220034</t>
+  </si>
+  <si>
+    <t>NAR040220035</t>
+  </si>
+  <si>
+    <t>NAR040220036</t>
+  </si>
+  <si>
+    <t>NAR040220037</t>
+  </si>
+  <si>
+    <t>NAR040220038</t>
+  </si>
+  <si>
+    <t>NAR040220039</t>
+  </si>
+  <si>
+    <t>NAR040220040</t>
+  </si>
+  <si>
+    <t>NAR040220041</t>
+  </si>
+  <si>
+    <t>NAR040220042</t>
+  </si>
+  <si>
+    <t>NAR040220043</t>
+  </si>
+  <si>
+    <t>NAR040220044</t>
+  </si>
+  <si>
+    <t>NAR040220045</t>
+  </si>
+  <si>
+    <t>NAR040220046</t>
+  </si>
+  <si>
+    <t>NAR040220047</t>
+  </si>
+  <si>
+    <t>NAR040220048</t>
+  </si>
+  <si>
+    <t>NAR040220049</t>
+  </si>
+  <si>
+    <t>NAR040220050</t>
+  </si>
+  <si>
+    <t>NAR040320001</t>
+  </si>
+  <si>
+    <t>NAR040320002</t>
+  </si>
+  <si>
+    <t>NAR040320003</t>
+  </si>
+  <si>
+    <t>NAR040320004</t>
+  </si>
+  <si>
+    <t>NAR040320005</t>
+  </si>
+  <si>
+    <t>NAR040320006</t>
+  </si>
+  <si>
+    <t>NAR040320007</t>
+  </si>
+  <si>
+    <t>NAR040320008</t>
+  </si>
+  <si>
+    <t>NAR040320009</t>
+  </si>
+  <si>
+    <t>NAR040320010</t>
+  </si>
+  <si>
+    <t>NAR040320011</t>
+  </si>
+  <si>
+    <t>NAR040320012</t>
+  </si>
+  <si>
+    <t>NAR040320013</t>
+  </si>
+  <si>
+    <t>NAR040320014</t>
+  </si>
+  <si>
+    <t>NAR040320015</t>
+  </si>
+  <si>
+    <t>NAR040320016</t>
+  </si>
+  <si>
+    <t>NAR040320017</t>
+  </si>
+  <si>
+    <t>NAR040320018</t>
+  </si>
+  <si>
+    <t>NAR040320019</t>
+  </si>
+  <si>
+    <t>NAR040320020</t>
+  </si>
+  <si>
+    <t>NAR040320021</t>
+  </si>
+  <si>
+    <t>NAR040320022</t>
+  </si>
+  <si>
+    <t>NAR040320023</t>
+  </si>
+  <si>
+    <t>NAR040320024</t>
+  </si>
+  <si>
+    <t>NAR040320025</t>
+  </si>
+  <si>
+    <t>NAR040320026</t>
+  </si>
+  <si>
+    <t>NAR040320027</t>
+  </si>
+  <si>
+    <t>NAR040320028</t>
+  </si>
+  <si>
+    <t>NAR040320029</t>
+  </si>
+  <si>
+    <t>NAR040320030</t>
+  </si>
+  <si>
+    <t>NAR040320031</t>
+  </si>
+  <si>
+    <t>NAR040320032</t>
+  </si>
+  <si>
+    <t>NAR040320033</t>
+  </si>
+  <si>
+    <t>NAR040320034</t>
+  </si>
+  <si>
+    <t>NAR040320035</t>
+  </si>
+  <si>
+    <t>NAR040320036</t>
+  </si>
+  <si>
+    <t>NAR040320037</t>
+  </si>
+  <si>
+    <t>NAR040320038</t>
+  </si>
+  <si>
+    <t>NAR040320039</t>
+  </si>
+  <si>
+    <t>NAR040320040</t>
+  </si>
+  <si>
+    <t>NAR040320041</t>
+  </si>
+  <si>
+    <t>NAR040320042</t>
+  </si>
+  <si>
+    <t>NAR040320043</t>
+  </si>
+  <si>
+    <t>NAR040320044</t>
+  </si>
+  <si>
+    <t>NAR040320045</t>
+  </si>
+  <si>
+    <t>NAR040320046</t>
+  </si>
+  <si>
+    <t>NAR040320047</t>
+  </si>
+  <si>
+    <t>NAR040320048</t>
+  </si>
+  <si>
+    <t>NAR040320049</t>
+  </si>
+  <si>
+    <t>NAR040320050</t>
+  </si>
+  <si>
+    <t>NAR040420001</t>
+  </si>
+  <si>
+    <t>NAR040420002</t>
+  </si>
+  <si>
+    <t>NAR040420003</t>
+  </si>
+  <si>
+    <t>NAR040420004</t>
+  </si>
+  <si>
+    <t>NAR040420005</t>
+  </si>
+  <si>
+    <t>NAR040420006</t>
+  </si>
+  <si>
+    <t>NAR040420007</t>
+  </si>
+  <si>
+    <t>NAR040420008</t>
+  </si>
+  <si>
+    <t>NAR040420009</t>
+  </si>
+  <si>
+    <t>NAR040420010</t>
+  </si>
+  <si>
+    <t>NAR040420011</t>
+  </si>
+  <si>
+    <t>NAR040420012</t>
+  </si>
+  <si>
+    <t>NAR040420013</t>
+  </si>
+  <si>
+    <t>NAR040420014</t>
+  </si>
+  <si>
+    <t>NAR040420015</t>
+  </si>
+  <si>
+    <t>NAR040420016</t>
+  </si>
+  <si>
+    <t>NAR040420017</t>
+  </si>
+  <si>
+    <t>NAR040420018</t>
+  </si>
+  <si>
+    <t>NAR040420019</t>
+  </si>
+  <si>
+    <t>NAR040420020</t>
+  </si>
+  <si>
+    <t>NAR040420021</t>
+  </si>
+  <si>
+    <t>NAR040420022</t>
+  </si>
+  <si>
+    <t>NAR040420023</t>
+  </si>
+  <si>
+    <t>NAR040420024</t>
+  </si>
+  <si>
+    <t>NAR040420025</t>
+  </si>
+  <si>
+    <t>NAR040420026</t>
+  </si>
+  <si>
+    <t>NAR040420027</t>
+  </si>
+  <si>
+    <t>NAR040420028</t>
+  </si>
+  <si>
+    <t>NAR040420029</t>
+  </si>
+  <si>
+    <t>NAR040420030</t>
+  </si>
+  <si>
+    <t>NAR040420031</t>
+  </si>
+  <si>
+    <t>NAR040420032</t>
+  </si>
+  <si>
+    <t>NAR040420033</t>
+  </si>
+  <si>
+    <t>NAR040420034</t>
+  </si>
+  <si>
+    <t>NAR040420035</t>
+  </si>
+  <si>
+    <t>NAR040420036</t>
+  </si>
+  <si>
+    <t>NAR040420037</t>
+  </si>
+  <si>
+    <t>NAR040420038</t>
+  </si>
+  <si>
+    <t>NAR040420039</t>
+  </si>
+  <si>
+    <t>NAR040420040</t>
+  </si>
+  <si>
+    <t>NAR040420041</t>
+  </si>
+  <si>
+    <t>NAR040420042</t>
+  </si>
+  <si>
+    <t>NAR040420043</t>
+  </si>
+  <si>
+    <t>NAR040420044</t>
+  </si>
+  <si>
+    <t>NAR040420045</t>
+  </si>
+  <si>
+    <t>NAR040420046</t>
+  </si>
+  <si>
+    <t>NAR040420047</t>
+  </si>
+  <si>
+    <t>NAR040420048</t>
+  </si>
+  <si>
+    <t>NAR040420049</t>
+  </si>
+  <si>
+    <t>NAR040420050</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B301"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5647,18 +5647,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5826,6 +5826,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775767D0-25B4-47E9-A7EF-066370498BD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF0335D-52D7-490C-9E50-1F6B6B21B633}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -5837,14 +5845,6 @@
     <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775767D0-25B4-47E9-A7EF-066370498BD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Label Template/Otolith Vial/otolith label.xlsx
+++ b/Label Template/Otolith Vial/otolith label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\GitHub\triploid-walleye-labwork\Label Template\Otolith Vial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1230999-9825-4334-A625-D089999D1290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838EED0-0B13-4296-9D1F-F7A28A47D616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="307">
   <si>
     <t>fishid</t>
   </si>
@@ -57,379 +57,904 @@
     <t>Otolith</t>
   </si>
   <si>
-    <t>JUM100320J001</t>
-  </si>
-  <si>
-    <t>JUM100320J002</t>
-  </si>
-  <si>
-    <t>JUM100320J003</t>
-  </si>
-  <si>
-    <t>JUM100320J004</t>
-  </si>
-  <si>
-    <t>JUM100320J005</t>
-  </si>
-  <si>
-    <t>JUM100320J006</t>
-  </si>
-  <si>
-    <t>JUM100320J007</t>
-  </si>
-  <si>
-    <t>JUM100320J008</t>
-  </si>
-  <si>
-    <t>JUM100320J009</t>
-  </si>
-  <si>
-    <t>JUM100320J010</t>
-  </si>
-  <si>
-    <t>JUM100320J011</t>
-  </si>
-  <si>
-    <t>JUM100320J012</t>
-  </si>
-  <si>
-    <t>JUM100320J013</t>
-  </si>
-  <si>
-    <t>JUM100320J014</t>
-  </si>
-  <si>
-    <t>JUM100320J015</t>
-  </si>
-  <si>
-    <t>JUM100320J016</t>
-  </si>
-  <si>
-    <t>JUM100320J017</t>
-  </si>
-  <si>
-    <t>JUM100320J018</t>
-  </si>
-  <si>
-    <t>JUM100320J019</t>
-  </si>
-  <si>
-    <t>JUM100320J020</t>
-  </si>
-  <si>
-    <t>JUM100320J021</t>
-  </si>
-  <si>
-    <t>JUM100320J022</t>
-  </si>
-  <si>
-    <t>JUM100320J023</t>
-  </si>
-  <si>
-    <t>JUM100320J024</t>
-  </si>
-  <si>
-    <t>JUM100320J025</t>
-  </si>
-  <si>
-    <t>JUM100320J026</t>
-  </si>
-  <si>
-    <t>JUM100320J027</t>
-  </si>
-  <si>
-    <t>JUM100320J028</t>
-  </si>
-  <si>
-    <t>JUM100320J029</t>
-  </si>
-  <si>
-    <t>JUM100320J030</t>
-  </si>
-  <si>
-    <t>JUM100320J031</t>
-  </si>
-  <si>
-    <t>JUM100320J032</t>
-  </si>
-  <si>
-    <t>JUM100320J033</t>
-  </si>
-  <si>
-    <t>JUM100320J034</t>
-  </si>
-  <si>
-    <t>JUM100320J035</t>
-  </si>
-  <si>
-    <t>JUM100320J036</t>
-  </si>
-  <si>
-    <t>JUM100320J037</t>
-  </si>
-  <si>
-    <t>JUM100320J038</t>
-  </si>
-  <si>
-    <t>JUM100320J039</t>
-  </si>
-  <si>
-    <t>JUM100320J040</t>
-  </si>
-  <si>
-    <t>JUM100320J041</t>
-  </si>
-  <si>
-    <t>JUM100320J042</t>
-  </si>
-  <si>
-    <t>JUM100320J043</t>
-  </si>
-  <si>
-    <t>JUM100320J044</t>
-  </si>
-  <si>
-    <t>JUM100320J045</t>
-  </si>
-  <si>
-    <t>JUM100320J046</t>
-  </si>
-  <si>
-    <t>JUM100320J047</t>
-  </si>
-  <si>
-    <t>JUM100320J048</t>
-  </si>
-  <si>
-    <t>JUM100320J049</t>
-  </si>
-  <si>
-    <t>JUM100320J050</t>
-  </si>
-  <si>
-    <t>JUM100320J051</t>
-  </si>
-  <si>
-    <t>JUM100320J052</t>
-  </si>
-  <si>
-    <t>JUM100320J053</t>
-  </si>
-  <si>
-    <t>JUM100320J054</t>
-  </si>
-  <si>
-    <t>JUM100320J055</t>
-  </si>
-  <si>
-    <t>JUM100320J056</t>
-  </si>
-  <si>
-    <t>JUM100320J057</t>
-  </si>
-  <si>
-    <t>JUM100320J058</t>
-  </si>
-  <si>
-    <t>JUM100320J059</t>
-  </si>
-  <si>
-    <t>JUM100320J060</t>
-  </si>
-  <si>
-    <t>JUM100320J061</t>
-  </si>
-  <si>
-    <t>JUM100320J062</t>
-  </si>
-  <si>
-    <t>JUM100320J063</t>
-  </si>
-  <si>
-    <t>JUM100320J064</t>
-  </si>
-  <si>
-    <t>JUM100320J065</t>
-  </si>
-  <si>
-    <t>JUM100320J066</t>
-  </si>
-  <si>
-    <t>JUM100320J067</t>
-  </si>
-  <si>
-    <t>JUM100320J068</t>
-  </si>
-  <si>
-    <t>JUM100320J069</t>
-  </si>
-  <si>
-    <t>JUM100320J070</t>
-  </si>
-  <si>
-    <t>JUM100320J071</t>
-  </si>
-  <si>
-    <t>JUM100320J072</t>
-  </si>
-  <si>
-    <t>JUM100320J073</t>
-  </si>
-  <si>
-    <t>JUM100320J074</t>
-  </si>
-  <si>
-    <t>JUM100320J075</t>
-  </si>
-  <si>
-    <t>JUM100320J076</t>
-  </si>
-  <si>
-    <t>JUM100320J077</t>
-  </si>
-  <si>
-    <t>JUM100320J078</t>
-  </si>
-  <si>
-    <t>JUM100320J079</t>
-  </si>
-  <si>
-    <t>JUM100320J080</t>
-  </si>
-  <si>
-    <t>JUM100320J081</t>
-  </si>
-  <si>
-    <t>JUM100320J082</t>
-  </si>
-  <si>
-    <t>JUM100320J083</t>
-  </si>
-  <si>
-    <t>JUM100320J084</t>
-  </si>
-  <si>
-    <t>JUM100320J085</t>
-  </si>
-  <si>
-    <t>JUM100320J086</t>
-  </si>
-  <si>
-    <t>JUM100320J087</t>
-  </si>
-  <si>
-    <t>JUM100320J088</t>
-  </si>
-  <si>
-    <t>JUM100320J089</t>
-  </si>
-  <si>
-    <t>JUM100320J090</t>
-  </si>
-  <si>
-    <t>JUM100320J091</t>
-  </si>
-  <si>
-    <t>JUM100320J092</t>
-  </si>
-  <si>
-    <t>JUM100320J093</t>
-  </si>
-  <si>
-    <t>JUM100320J094</t>
-  </si>
-  <si>
-    <t>JUM100320J095</t>
-  </si>
-  <si>
-    <t>JUM100320J096</t>
-  </si>
-  <si>
-    <t>JUM100320J097</t>
-  </si>
-  <si>
-    <t>JUM100320J098</t>
-  </si>
-  <si>
-    <t>JUM100320J099</t>
-  </si>
-  <si>
-    <t>JUM100320J100</t>
-  </si>
-  <si>
-    <t>JUM100320J101</t>
-  </si>
-  <si>
-    <t>JUM100320J102</t>
-  </si>
-  <si>
-    <t>JUM100320J103</t>
-  </si>
-  <si>
-    <t>JUM100320J104</t>
-  </si>
-  <si>
-    <t>JUM100320J105</t>
-  </si>
-  <si>
-    <t>JUM100320J106</t>
-  </si>
-  <si>
-    <t>JUM100320J107</t>
-  </si>
-  <si>
-    <t>JUM100320J108</t>
-  </si>
-  <si>
-    <t>JUM100320J109</t>
-  </si>
-  <si>
-    <t>JUM100320J110</t>
-  </si>
-  <si>
-    <t>JUM100320J111</t>
-  </si>
-  <si>
-    <t>JUM100320J112</t>
-  </si>
-  <si>
-    <t>JUM100320J113</t>
-  </si>
-  <si>
-    <t>JUM100320J114</t>
-  </si>
-  <si>
-    <t>JUM100320J115</t>
-  </si>
-  <si>
-    <t>JUM100320J116</t>
-  </si>
-  <si>
-    <t>JUM100320J117</t>
-  </si>
-  <si>
-    <t>JUM100320J118</t>
-  </si>
-  <si>
-    <t>JUM100320J119</t>
-  </si>
-  <si>
-    <t>JUM100320J120</t>
-  </si>
-  <si>
-    <t>JUM100320J121</t>
-  </si>
-  <si>
-    <t>JUM100320J122</t>
-  </si>
-  <si>
-    <t>JUM100320J123</t>
-  </si>
-  <si>
-    <t>JUM100320J124</t>
-  </si>
-  <si>
-    <t>JUM100320J125</t>
+    <t>NAR041321001</t>
+  </si>
+  <si>
+    <t>NAR041221001</t>
+  </si>
+  <si>
+    <t>NAR041221002</t>
+  </si>
+  <si>
+    <t>NAR041221003</t>
+  </si>
+  <si>
+    <t>NAR041221004</t>
+  </si>
+  <si>
+    <t>NAR041221005</t>
+  </si>
+  <si>
+    <t>NAR041221006</t>
+  </si>
+  <si>
+    <t>NAR041221007</t>
+  </si>
+  <si>
+    <t>NAR041221008</t>
+  </si>
+  <si>
+    <t>NAR041221009</t>
+  </si>
+  <si>
+    <t>NAR041221010</t>
+  </si>
+  <si>
+    <t>NAR041221011</t>
+  </si>
+  <si>
+    <t>NAR041221012</t>
+  </si>
+  <si>
+    <t>NAR041221013</t>
+  </si>
+  <si>
+    <t>NAR041221014</t>
+  </si>
+  <si>
+    <t>NAR041221015</t>
+  </si>
+  <si>
+    <t>NAR041221016</t>
+  </si>
+  <si>
+    <t>NAR041221017</t>
+  </si>
+  <si>
+    <t>NAR041221018</t>
+  </si>
+  <si>
+    <t>NAR041221019</t>
+  </si>
+  <si>
+    <t>NAR041221020</t>
+  </si>
+  <si>
+    <t>NAR041221021</t>
+  </si>
+  <si>
+    <t>NAR041221022</t>
+  </si>
+  <si>
+    <t>NAR041221023</t>
+  </si>
+  <si>
+    <t>NAR041221024</t>
+  </si>
+  <si>
+    <t>NAR041221025</t>
+  </si>
+  <si>
+    <t>NAR041221026</t>
+  </si>
+  <si>
+    <t>NAR041221027</t>
+  </si>
+  <si>
+    <t>NAR041221028</t>
+  </si>
+  <si>
+    <t>NAR041221029</t>
+  </si>
+  <si>
+    <t>NAR041221030</t>
+  </si>
+  <si>
+    <t>NAR041221031</t>
+  </si>
+  <si>
+    <t>NAR041221032</t>
+  </si>
+  <si>
+    <t>NAR041221033</t>
+  </si>
+  <si>
+    <t>NAR041221034</t>
+  </si>
+  <si>
+    <t>NAR041221035</t>
+  </si>
+  <si>
+    <t>NAR041221036</t>
+  </si>
+  <si>
+    <t>NAR041221037</t>
+  </si>
+  <si>
+    <t>NAR041221038</t>
+  </si>
+  <si>
+    <t>NAR041221039</t>
+  </si>
+  <si>
+    <t>NAR041221040</t>
+  </si>
+  <si>
+    <t>NAR041221041</t>
+  </si>
+  <si>
+    <t>NAR041221042</t>
+  </si>
+  <si>
+    <t>NAR041221043</t>
+  </si>
+  <si>
+    <t>NAR041221044</t>
+  </si>
+  <si>
+    <t>NAR041221045</t>
+  </si>
+  <si>
+    <t>NAR041221046</t>
+  </si>
+  <si>
+    <t>NAR041221047</t>
+  </si>
+  <si>
+    <t>NAR041221048</t>
+  </si>
+  <si>
+    <t>NAR041221049</t>
+  </si>
+  <si>
+    <t>NAR041221050</t>
+  </si>
+  <si>
+    <t>NAR041321002</t>
+  </si>
+  <si>
+    <t>NAR041321003</t>
+  </si>
+  <si>
+    <t>NAR041321004</t>
+  </si>
+  <si>
+    <t>NAR041321005</t>
+  </si>
+  <si>
+    <t>NAR041321006</t>
+  </si>
+  <si>
+    <t>NAR041321007</t>
+  </si>
+  <si>
+    <t>NAR041321008</t>
+  </si>
+  <si>
+    <t>NAR041321009</t>
+  </si>
+  <si>
+    <t>NAR041321010</t>
+  </si>
+  <si>
+    <t>NAR041321011</t>
+  </si>
+  <si>
+    <t>NAR041321012</t>
+  </si>
+  <si>
+    <t>NAR041321013</t>
+  </si>
+  <si>
+    <t>NAR041321014</t>
+  </si>
+  <si>
+    <t>NAR041321015</t>
+  </si>
+  <si>
+    <t>NAR041321016</t>
+  </si>
+  <si>
+    <t>NAR041321017</t>
+  </si>
+  <si>
+    <t>NAR041321018</t>
+  </si>
+  <si>
+    <t>NAR041321019</t>
+  </si>
+  <si>
+    <t>NAR041321020</t>
+  </si>
+  <si>
+    <t>NAR041321021</t>
+  </si>
+  <si>
+    <t>NAR041321022</t>
+  </si>
+  <si>
+    <t>NAR041321023</t>
+  </si>
+  <si>
+    <t>NAR041321024</t>
+  </si>
+  <si>
+    <t>NAR041321025</t>
+  </si>
+  <si>
+    <t>NAR041321026</t>
+  </si>
+  <si>
+    <t>NAR041321027</t>
+  </si>
+  <si>
+    <t>NAR041321028</t>
+  </si>
+  <si>
+    <t>NAR041321029</t>
+  </si>
+  <si>
+    <t>NAR041321030</t>
+  </si>
+  <si>
+    <t>NAR041321031</t>
+  </si>
+  <si>
+    <t>NAR041321032</t>
+  </si>
+  <si>
+    <t>NAR041321033</t>
+  </si>
+  <si>
+    <t>NAR041321034</t>
+  </si>
+  <si>
+    <t>NAR041321035</t>
+  </si>
+  <si>
+    <t>NAR041321036</t>
+  </si>
+  <si>
+    <t>NAR041321037</t>
+  </si>
+  <si>
+    <t>NAR041321038</t>
+  </si>
+  <si>
+    <t>NAR041321039</t>
+  </si>
+  <si>
+    <t>NAR041321040</t>
+  </si>
+  <si>
+    <t>NAR041321041</t>
+  </si>
+  <si>
+    <t>NAR041321042</t>
+  </si>
+  <si>
+    <t>NAR041321043</t>
+  </si>
+  <si>
+    <t>NAR041321044</t>
+  </si>
+  <si>
+    <t>NAR041321045</t>
+  </si>
+  <si>
+    <t>NAR041321046</t>
+  </si>
+  <si>
+    <t>NAR041321047</t>
+  </si>
+  <si>
+    <t>NAR041321048</t>
+  </si>
+  <si>
+    <t>NAR041321049</t>
+  </si>
+  <si>
+    <t>NAR041321050</t>
+  </si>
+  <si>
+    <t>NAR041421001</t>
+  </si>
+  <si>
+    <t>NAR041421002</t>
+  </si>
+  <si>
+    <t>NAR041421003</t>
+  </si>
+  <si>
+    <t>NAR041421004</t>
+  </si>
+  <si>
+    <t>NAR041421005</t>
+  </si>
+  <si>
+    <t>NAR041421006</t>
+  </si>
+  <si>
+    <t>NAR041421007</t>
+  </si>
+  <si>
+    <t>NAR041421008</t>
+  </si>
+  <si>
+    <t>NAR041421009</t>
+  </si>
+  <si>
+    <t>NAR041421010</t>
+  </si>
+  <si>
+    <t>NAR041421011</t>
+  </si>
+  <si>
+    <t>NAR041421012</t>
+  </si>
+  <si>
+    <t>NAR041421013</t>
+  </si>
+  <si>
+    <t>NAR041421014</t>
+  </si>
+  <si>
+    <t>NAR041421015</t>
+  </si>
+  <si>
+    <t>NAR041421016</t>
+  </si>
+  <si>
+    <t>NAR041421017</t>
+  </si>
+  <si>
+    <t>NAR041421018</t>
+  </si>
+  <si>
+    <t>NAR041421019</t>
+  </si>
+  <si>
+    <t>NAR041421020</t>
+  </si>
+  <si>
+    <t>NAR041421021</t>
+  </si>
+  <si>
+    <t>NAR041421022</t>
+  </si>
+  <si>
+    <t>NAR041421023</t>
+  </si>
+  <si>
+    <t>NAR041421024</t>
+  </si>
+  <si>
+    <t>NAR041421025</t>
+  </si>
+  <si>
+    <t>NAR041421026</t>
+  </si>
+  <si>
+    <t>NAR041421027</t>
+  </si>
+  <si>
+    <t>NAR041421028</t>
+  </si>
+  <si>
+    <t>NAR041421029</t>
+  </si>
+  <si>
+    <t>NAR041421030</t>
+  </si>
+  <si>
+    <t>NAR041421031</t>
+  </si>
+  <si>
+    <t>NAR041421032</t>
+  </si>
+  <si>
+    <t>NAR041421033</t>
+  </si>
+  <si>
+    <t>NAR041421034</t>
+  </si>
+  <si>
+    <t>NAR041421035</t>
+  </si>
+  <si>
+    <t>NAR041421036</t>
+  </si>
+  <si>
+    <t>NAR041421037</t>
+  </si>
+  <si>
+    <t>NAR041421038</t>
+  </si>
+  <si>
+    <t>NAR041421039</t>
+  </si>
+  <si>
+    <t>NAR041421040</t>
+  </si>
+  <si>
+    <t>NAR041421041</t>
+  </si>
+  <si>
+    <t>NAR041421042</t>
+  </si>
+  <si>
+    <t>NAR041421043</t>
+  </si>
+  <si>
+    <t>NAR041421044</t>
+  </si>
+  <si>
+    <t>NAR041421045</t>
+  </si>
+  <si>
+    <t>NAR041421046</t>
+  </si>
+  <si>
+    <t>NAR041421047</t>
+  </si>
+  <si>
+    <t>NAR041421048</t>
+  </si>
+  <si>
+    <t>NAR041421049</t>
+  </si>
+  <si>
+    <t>NAR041421050</t>
+  </si>
+  <si>
+    <t>NAR041521001</t>
+  </si>
+  <si>
+    <t>NAR041521002</t>
+  </si>
+  <si>
+    <t>NAR041521003</t>
+  </si>
+  <si>
+    <t>NAR041521004</t>
+  </si>
+  <si>
+    <t>NAR041521005</t>
+  </si>
+  <si>
+    <t>NAR041521006</t>
+  </si>
+  <si>
+    <t>NAR041521007</t>
+  </si>
+  <si>
+    <t>NAR041521008</t>
+  </si>
+  <si>
+    <t>NAR041521009</t>
+  </si>
+  <si>
+    <t>NAR041521010</t>
+  </si>
+  <si>
+    <t>NAR041521011</t>
+  </si>
+  <si>
+    <t>NAR041521012</t>
+  </si>
+  <si>
+    <t>NAR041521013</t>
+  </si>
+  <si>
+    <t>NAR041521014</t>
+  </si>
+  <si>
+    <t>NAR041521015</t>
+  </si>
+  <si>
+    <t>NAR041521016</t>
+  </si>
+  <si>
+    <t>NAR041521017</t>
+  </si>
+  <si>
+    <t>NAR041521018</t>
+  </si>
+  <si>
+    <t>NAR041521019</t>
+  </si>
+  <si>
+    <t>NAR041521020</t>
+  </si>
+  <si>
+    <t>NAR041521021</t>
+  </si>
+  <si>
+    <t>NAR041521022</t>
+  </si>
+  <si>
+    <t>NAR041521023</t>
+  </si>
+  <si>
+    <t>NAR041521024</t>
+  </si>
+  <si>
+    <t>NAR041521025</t>
+  </si>
+  <si>
+    <t>NAR041521026</t>
+  </si>
+  <si>
+    <t>NAR041521027</t>
+  </si>
+  <si>
+    <t>NAR041521028</t>
+  </si>
+  <si>
+    <t>NAR041521029</t>
+  </si>
+  <si>
+    <t>NAR041521030</t>
+  </si>
+  <si>
+    <t>NAR041521031</t>
+  </si>
+  <si>
+    <t>NAR041521032</t>
+  </si>
+  <si>
+    <t>NAR041521033</t>
+  </si>
+  <si>
+    <t>NAR041521034</t>
+  </si>
+  <si>
+    <t>NAR041521035</t>
+  </si>
+  <si>
+    <t>NAR041521036</t>
+  </si>
+  <si>
+    <t>NAR041521037</t>
+  </si>
+  <si>
+    <t>NAR041521038</t>
+  </si>
+  <si>
+    <t>NAR041521039</t>
+  </si>
+  <si>
+    <t>NAR041521040</t>
+  </si>
+  <si>
+    <t>NAR041521041</t>
+  </si>
+  <si>
+    <t>NAR041521042</t>
+  </si>
+  <si>
+    <t>NAR041521043</t>
+  </si>
+  <si>
+    <t>NAR041521044</t>
+  </si>
+  <si>
+    <t>NAR041521045</t>
+  </si>
+  <si>
+    <t>NAR041521046</t>
+  </si>
+  <si>
+    <t>NAR041521047</t>
+  </si>
+  <si>
+    <t>NAR041521048</t>
+  </si>
+  <si>
+    <t>NAR041521049</t>
+  </si>
+  <si>
+    <t>NAR041521050</t>
+  </si>
+  <si>
+    <t>NAR041621001</t>
+  </si>
+  <si>
+    <t>NAR041621002</t>
+  </si>
+  <si>
+    <t>NAR041621003</t>
+  </si>
+  <si>
+    <t>NAR041621004</t>
+  </si>
+  <si>
+    <t>NAR041621005</t>
+  </si>
+  <si>
+    <t>NAR041621006</t>
+  </si>
+  <si>
+    <t>NAR041621007</t>
+  </si>
+  <si>
+    <t>NAR041621008</t>
+  </si>
+  <si>
+    <t>NAR041621009</t>
+  </si>
+  <si>
+    <t>NAR041621010</t>
+  </si>
+  <si>
+    <t>NAR041621011</t>
+  </si>
+  <si>
+    <t>NAR041621012</t>
+  </si>
+  <si>
+    <t>NAR041621013</t>
+  </si>
+  <si>
+    <t>NAR041621014</t>
+  </si>
+  <si>
+    <t>NAR041621015</t>
+  </si>
+  <si>
+    <t>NAR041621016</t>
+  </si>
+  <si>
+    <t>NAR041621017</t>
+  </si>
+  <si>
+    <t>NAR041621018</t>
+  </si>
+  <si>
+    <t>NAR041621019</t>
+  </si>
+  <si>
+    <t>NAR041621020</t>
+  </si>
+  <si>
+    <t>NAR041621021</t>
+  </si>
+  <si>
+    <t>NAR041621022</t>
+  </si>
+  <si>
+    <t>NAR041621023</t>
+  </si>
+  <si>
+    <t>NAR041621024</t>
+  </si>
+  <si>
+    <t>NAR041621025</t>
+  </si>
+  <si>
+    <t>NAR041621026</t>
+  </si>
+  <si>
+    <t>NAR041621027</t>
+  </si>
+  <si>
+    <t>NAR041621028</t>
+  </si>
+  <si>
+    <t>NAR041621029</t>
+  </si>
+  <si>
+    <t>NAR041621030</t>
+  </si>
+  <si>
+    <t>NAR041621031</t>
+  </si>
+  <si>
+    <t>NAR041621032</t>
+  </si>
+  <si>
+    <t>NAR041621033</t>
+  </si>
+  <si>
+    <t>NAR041621034</t>
+  </si>
+  <si>
+    <t>NAR041621035</t>
+  </si>
+  <si>
+    <t>NAR041621036</t>
+  </si>
+  <si>
+    <t>NAR041621037</t>
+  </si>
+  <si>
+    <t>NAR041621038</t>
+  </si>
+  <si>
+    <t>NAR041621039</t>
+  </si>
+  <si>
+    <t>NAR041621040</t>
+  </si>
+  <si>
+    <t>NAR041621041</t>
+  </si>
+  <si>
+    <t>NAR041621042</t>
+  </si>
+  <si>
+    <t>NAR041621043</t>
+  </si>
+  <si>
+    <t>NAR041621044</t>
+  </si>
+  <si>
+    <t>NAR041621045</t>
+  </si>
+  <si>
+    <t>NAR041621046</t>
+  </si>
+  <si>
+    <t>NAR041621047</t>
+  </si>
+  <si>
+    <t>NAR041621048</t>
+  </si>
+  <si>
+    <t>NAR041621049</t>
+  </si>
+  <si>
+    <t>NAR041621050</t>
+  </si>
+  <si>
+    <t>NAR041721001</t>
+  </si>
+  <si>
+    <t>NAR041721002</t>
+  </si>
+  <si>
+    <t>NAR041721003</t>
+  </si>
+  <si>
+    <t>NAR041721004</t>
+  </si>
+  <si>
+    <t>NAR041721005</t>
+  </si>
+  <si>
+    <t>NAR041721006</t>
+  </si>
+  <si>
+    <t>NAR041721007</t>
+  </si>
+  <si>
+    <t>NAR041721008</t>
+  </si>
+  <si>
+    <t>NAR041721009</t>
+  </si>
+  <si>
+    <t>NAR041721010</t>
+  </si>
+  <si>
+    <t>NAR041721011</t>
+  </si>
+  <si>
+    <t>NAR041721012</t>
+  </si>
+  <si>
+    <t>NAR041721013</t>
+  </si>
+  <si>
+    <t>NAR041721014</t>
+  </si>
+  <si>
+    <t>NAR041721015</t>
+  </si>
+  <si>
+    <t>NAR041721016</t>
+  </si>
+  <si>
+    <t>NAR041721017</t>
+  </si>
+  <si>
+    <t>NAR041721018</t>
+  </si>
+  <si>
+    <t>NAR041721019</t>
+  </si>
+  <si>
+    <t>NAR041721020</t>
+  </si>
+  <si>
+    <t>NAR041721021</t>
+  </si>
+  <si>
+    <t>NAR041721022</t>
+  </si>
+  <si>
+    <t>NAR041721023</t>
+  </si>
+  <si>
+    <t>NAR041721024</t>
+  </si>
+  <si>
+    <t>NAR041721025</t>
+  </si>
+  <si>
+    <t>NAR041721026</t>
+  </si>
+  <si>
+    <t>NAR041721027</t>
+  </si>
+  <si>
+    <t>NAR041721028</t>
+  </si>
+  <si>
+    <t>NAR041721029</t>
+  </si>
+  <si>
+    <t>NAR041721030</t>
+  </si>
+  <si>
+    <t>NAR041721031</t>
+  </si>
+  <si>
+    <t>NAR041721032</t>
+  </si>
+  <si>
+    <t>NAR041721033</t>
+  </si>
+  <si>
+    <t>NAR041721034</t>
+  </si>
+  <si>
+    <t>NAR041721035</t>
+  </si>
+  <si>
+    <t>NAR041721036</t>
+  </si>
+  <si>
+    <t>NAR041721037</t>
+  </si>
+  <si>
+    <t>NAR041721038</t>
+  </si>
+  <si>
+    <t>NAR041721039</t>
+  </si>
+  <si>
+    <t>NAR041721040</t>
+  </si>
+  <si>
+    <t>NAR041721041</t>
+  </si>
+  <si>
+    <t>NAR041721042</t>
+  </si>
+  <si>
+    <t>NAR041721043</t>
+  </si>
+  <si>
+    <t>NAR041721044</t>
+  </si>
+  <si>
+    <t>NAR041721045</t>
+  </si>
+  <si>
+    <t>NAR041721046</t>
+  </si>
+  <si>
+    <t>NAR041721047</t>
+  </si>
+  <si>
+    <t>NAR041721048</t>
+  </si>
+  <si>
+    <t>NAR041721049</t>
+  </si>
+  <si>
+    <t>NAR041721050</t>
   </si>
 </sst>
 </file>
@@ -795,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A126"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +1346,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -835,7 +1360,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -849,7 +1374,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -863,7 +1388,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -877,7 +1402,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -891,7 +1416,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -905,7 +1430,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -919,7 +1444,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -933,7 +1458,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -947,7 +1472,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -961,7 +1486,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -975,7 +1500,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -989,7 +1514,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1003,7 +1528,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -1017,7 +1542,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1031,7 +1556,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1045,7 +1570,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1059,7 +1584,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1073,7 +1598,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1087,7 +1612,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1101,7 +1626,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1115,7 +1640,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1129,7 +1654,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1143,7 +1668,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1157,7 +1682,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1171,7 +1696,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1185,7 +1710,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1199,7 +1724,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -1213,7 +1738,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -1227,7 +1752,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1241,7 +1766,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1255,7 +1780,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -1269,7 +1794,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -1283,7 +1808,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -1297,7 +1822,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1311,7 +1836,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -1325,7 +1850,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1339,7 +1864,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -1353,7 +1878,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -1367,7 +1892,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -1381,7 +1906,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1395,7 +1920,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -1409,7 +1934,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1423,7 +1948,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -1437,7 +1962,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -1451,7 +1976,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -1465,7 +1990,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1479,7 +2004,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1493,7 +2018,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1507,7 +2032,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1521,7 +2046,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -2569,13 +3094,2463 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>254</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>257</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>258</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>289</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>293</v>
+      </c>
+      <c r="B288" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>295</v>
+      </c>
+      <c r="B290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>296</v>
+      </c>
+      <c r="B291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>297</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>298</v>
+      </c>
+      <c r="B293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>299</v>
+      </c>
+      <c r="B294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>300</v>
+      </c>
+      <c r="B295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>301</v>
+      </c>
+      <c r="B296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>306</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
@@ -2684,12 +5659,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2857,15 +5829,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775767D0-25B4-47E9-A7EF-066370498BD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF0335D-52D7-490C-9E50-1F6B6B21B633}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2889,17 +5872,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF0335D-52D7-490C-9E50-1F6B6B21B633}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775767D0-25B4-47E9-A7EF-066370498BD7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Label Template/Otolith Vial/otolith label.xlsx
+++ b/Label Template/Otolith Vial/otolith label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colli\Documents\GitHub\triploid-walleye-labwork\Label Template\Otolith Vial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB36ED-8703-4618-B541-FD42AC039BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF9A29-2F97-4101-A003-B1863F64BC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="388">
   <si>
     <t>fishid</t>
   </si>
@@ -57,220 +57,1147 @@
     <t>Otolith</t>
   </si>
   <si>
-    <t>JUM081920J001</t>
-  </si>
-  <si>
-    <t>JUM081920J002</t>
-  </si>
-  <si>
-    <t>JUM081920J003</t>
-  </si>
-  <si>
-    <t>JUM081920J004</t>
-  </si>
-  <si>
-    <t>JUM081920J005</t>
-  </si>
-  <si>
-    <t>JUM081920J006</t>
-  </si>
-  <si>
-    <t>JUM081920J007</t>
-  </si>
-  <si>
-    <t>JUM081920J008</t>
-  </si>
-  <si>
-    <t>JUM081920J009</t>
-  </si>
-  <si>
-    <t>JUM081920J010</t>
-  </si>
-  <si>
-    <t>JUM081920J011</t>
-  </si>
-  <si>
-    <t>JUM081920J012</t>
-  </si>
-  <si>
-    <t>JUM081920J013</t>
-  </si>
-  <si>
-    <t>JUM081920J014</t>
-  </si>
-  <si>
-    <t>JUM081920J015</t>
-  </si>
-  <si>
-    <t>JUM081920J016</t>
-  </si>
-  <si>
-    <t>JUM081920J017</t>
-  </si>
-  <si>
-    <t>JUM081920J018</t>
-  </si>
-  <si>
-    <t>JUM081920J019</t>
-  </si>
-  <si>
-    <t>JUM081920J020</t>
-  </si>
-  <si>
-    <t>JUM081920J021</t>
-  </si>
-  <si>
-    <t>JUM081920J022</t>
-  </si>
-  <si>
-    <t>JUM081920J023</t>
-  </si>
-  <si>
-    <t>JUM081920J024</t>
-  </si>
-  <si>
-    <t>JUM081920J025</t>
-  </si>
-  <si>
-    <t>JUM081920J026</t>
-  </si>
-  <si>
-    <t>JUM081920J027</t>
-  </si>
-  <si>
-    <t>JUM081920J028</t>
-  </si>
-  <si>
-    <t>JUM081920J029</t>
-  </si>
-  <si>
-    <t>JUM081920J030</t>
-  </si>
-  <si>
-    <t>JUM081920J031</t>
-  </si>
-  <si>
-    <t>JUM081920J032</t>
-  </si>
-  <si>
-    <t>JUM081920J033</t>
-  </si>
-  <si>
-    <t>JUM081920J034</t>
-  </si>
-  <si>
-    <t>JUM081920J035</t>
-  </si>
-  <si>
-    <t>JUM081920J036</t>
-  </si>
-  <si>
-    <t>JUM081920J037</t>
-  </si>
-  <si>
-    <t>JUM081920J038</t>
-  </si>
-  <si>
-    <t>JUM081920J039</t>
-  </si>
-  <si>
-    <t>JUM081920J040</t>
-  </si>
-  <si>
-    <t>JUM081920J041</t>
-  </si>
-  <si>
-    <t>JUM081920J042</t>
-  </si>
-  <si>
-    <t>JUM081920J043</t>
-  </si>
-  <si>
-    <t>JUM081920J044</t>
-  </si>
-  <si>
-    <t>JUM081920J045</t>
-  </si>
-  <si>
-    <t>JUM082020J001</t>
-  </si>
-  <si>
-    <t>JUM082020J002</t>
-  </si>
-  <si>
-    <t>JUM082020J003</t>
-  </si>
-  <si>
-    <t>JUM082020J004</t>
-  </si>
-  <si>
-    <t>JUM082020J005</t>
-  </si>
-  <si>
-    <t>JUM082020J006</t>
-  </si>
-  <si>
-    <t>JUM082020J007</t>
-  </si>
-  <si>
-    <t>JUM082020J008</t>
-  </si>
-  <si>
-    <t>JUM082020J009</t>
-  </si>
-  <si>
-    <t>JUM082020J010</t>
-  </si>
-  <si>
-    <t>JUM082020J011</t>
-  </si>
-  <si>
-    <t>JUM082020J012</t>
-  </si>
-  <si>
-    <t>JUM082020J013</t>
-  </si>
-  <si>
-    <t>JUM082020J014</t>
-  </si>
-  <si>
-    <t>JUM082020J015</t>
-  </si>
-  <si>
-    <t>JUM082020J016</t>
-  </si>
-  <si>
-    <t>JUM082020J017</t>
-  </si>
-  <si>
-    <t>JUM082020J018</t>
-  </si>
-  <si>
-    <t>JUM082020J019</t>
-  </si>
-  <si>
-    <t>JUM082020J020</t>
-  </si>
-  <si>
-    <t>JUM082020J021</t>
-  </si>
-  <si>
-    <t>JUM082020J022</t>
-  </si>
-  <si>
-    <t>JUM082020J023</t>
-  </si>
-  <si>
-    <t>JUM082020J024</t>
-  </si>
-  <si>
-    <t>JUM082020J025</t>
-  </si>
-  <si>
-    <t>JUM082020J026</t>
-  </si>
-  <si>
-    <t>JUM082020J027</t>
+    <t>NAR101520001</t>
+  </si>
+  <si>
+    <t>NAR101520002</t>
+  </si>
+  <si>
+    <t>NAR101520003</t>
+  </si>
+  <si>
+    <t>NAR101520004</t>
+  </si>
+  <si>
+    <t>NAR101520005</t>
+  </si>
+  <si>
+    <t>NAR101520006</t>
+  </si>
+  <si>
+    <t>NAR101520007</t>
+  </si>
+  <si>
+    <t>NAR101520008</t>
+  </si>
+  <si>
+    <t>NAR101520009</t>
+  </si>
+  <si>
+    <t>NAR101520010</t>
+  </si>
+  <si>
+    <t>NAR101520011</t>
+  </si>
+  <si>
+    <t>NAR101520012</t>
+  </si>
+  <si>
+    <t>NAR101520013</t>
+  </si>
+  <si>
+    <t>NAR101520014</t>
+  </si>
+  <si>
+    <t>NAR101520015</t>
+  </si>
+  <si>
+    <t>NAR101520016</t>
+  </si>
+  <si>
+    <t>NAR101520017</t>
+  </si>
+  <si>
+    <t>NAR101520018</t>
+  </si>
+  <si>
+    <t>NAR101520019</t>
+  </si>
+  <si>
+    <t>NAR101520020</t>
+  </si>
+  <si>
+    <t>NAR101520021</t>
+  </si>
+  <si>
+    <t>NAR101520022</t>
+  </si>
+  <si>
+    <t>NAR101520023</t>
+  </si>
+  <si>
+    <t>NAR101520024</t>
+  </si>
+  <si>
+    <t>NAR101520025</t>
+  </si>
+  <si>
+    <t>NAR101520026</t>
+  </si>
+  <si>
+    <t>NAR101520027</t>
+  </si>
+  <si>
+    <t>NAR101520028</t>
+  </si>
+  <si>
+    <t>NAR101520029</t>
+  </si>
+  <si>
+    <t>NAR101520030</t>
+  </si>
+  <si>
+    <t>NAR101520031</t>
+  </si>
+  <si>
+    <t>NAR101520032</t>
+  </si>
+  <si>
+    <t>NAR101520033</t>
+  </si>
+  <si>
+    <t>NAR101520034</t>
+  </si>
+  <si>
+    <t>NAR101520035</t>
+  </si>
+  <si>
+    <t>NAR101520036</t>
+  </si>
+  <si>
+    <t>NAR101520037</t>
+  </si>
+  <si>
+    <t>NAR101520038</t>
+  </si>
+  <si>
+    <t>NAR101520039</t>
+  </si>
+  <si>
+    <t>NAR101520040</t>
+  </si>
+  <si>
+    <t>NAR101520041</t>
+  </si>
+  <si>
+    <t>NAR101520042</t>
+  </si>
+  <si>
+    <t>NAR101520043</t>
+  </si>
+  <si>
+    <t>NAR101520044</t>
+  </si>
+  <si>
+    <t>NAR101520045</t>
+  </si>
+  <si>
+    <t>NAR101520046</t>
+  </si>
+  <si>
+    <t>NAR101520047</t>
+  </si>
+  <si>
+    <t>NAR101520048</t>
+  </si>
+  <si>
+    <t>NAR101520049</t>
+  </si>
+  <si>
+    <t>NAR101520050</t>
+  </si>
+  <si>
+    <t>NAR101520051</t>
+  </si>
+  <si>
+    <t>NAR101520052</t>
+  </si>
+  <si>
+    <t>NAR101520053</t>
+  </si>
+  <si>
+    <t>NAR101520054</t>
+  </si>
+  <si>
+    <t>NAR101520055</t>
+  </si>
+  <si>
+    <t>NAR101520056</t>
+  </si>
+  <si>
+    <t>NAR101520057</t>
+  </si>
+  <si>
+    <t>NAR101520058</t>
+  </si>
+  <si>
+    <t>NAR101520059</t>
+  </si>
+  <si>
+    <t>NAR101520060</t>
+  </si>
+  <si>
+    <t>NAR101520061</t>
+  </si>
+  <si>
+    <t>NAR101520062</t>
+  </si>
+  <si>
+    <t>NAR101520063</t>
+  </si>
+  <si>
+    <t>NAR101520064</t>
+  </si>
+  <si>
+    <t>NAR101520065</t>
+  </si>
+  <si>
+    <t>NAR101520066</t>
+  </si>
+  <si>
+    <t>NAR101520067</t>
+  </si>
+  <si>
+    <t>NAR101520068</t>
+  </si>
+  <si>
+    <t>NAR101520069</t>
+  </si>
+  <si>
+    <t>NAR101520070</t>
+  </si>
+  <si>
+    <t>NAR101520071</t>
+  </si>
+  <si>
+    <t>NAR101520072</t>
+  </si>
+  <si>
+    <t>NAR101520073</t>
+  </si>
+  <si>
+    <t>NAR101520074</t>
+  </si>
+  <si>
+    <t>NAR101520075</t>
+  </si>
+  <si>
+    <t>NAR101520076</t>
+  </si>
+  <si>
+    <t>NAR101520077</t>
+  </si>
+  <si>
+    <t>NAR101520078</t>
+  </si>
+  <si>
+    <t>NAR101520079</t>
+  </si>
+  <si>
+    <t>NAR101520080</t>
+  </si>
+  <si>
+    <t>NAR101520081</t>
+  </si>
+  <si>
+    <t>NAR101520082</t>
+  </si>
+  <si>
+    <t>NAR101520083</t>
+  </si>
+  <si>
+    <t>NAR101520084</t>
+  </si>
+  <si>
+    <t>NAR101520085</t>
+  </si>
+  <si>
+    <t>NAR101520086</t>
+  </si>
+  <si>
+    <t>NAR101520087</t>
+  </si>
+  <si>
+    <t>NAR101520088</t>
+  </si>
+  <si>
+    <t>NAR101520089</t>
+  </si>
+  <si>
+    <t>NAR101520090</t>
+  </si>
+  <si>
+    <t>NAR101520091</t>
+  </si>
+  <si>
+    <t>NAR101520092</t>
+  </si>
+  <si>
+    <t>NAR101520093</t>
+  </si>
+  <si>
+    <t>NAR101520094</t>
+  </si>
+  <si>
+    <t>NAR101520095</t>
+  </si>
+  <si>
+    <t>NAR101520096</t>
+  </si>
+  <si>
+    <t>NAR101520097</t>
+  </si>
+  <si>
+    <t>NAR101520098</t>
+  </si>
+  <si>
+    <t>NAR101520099</t>
+  </si>
+  <si>
+    <t>NAR101520100</t>
+  </si>
+  <si>
+    <t>NAR101520101</t>
+  </si>
+  <si>
+    <t>NAR101520102</t>
+  </si>
+  <si>
+    <t>NAR101520103</t>
+  </si>
+  <si>
+    <t>NAR101520104</t>
+  </si>
+  <si>
+    <t>NAR101520105</t>
+  </si>
+  <si>
+    <t>NAR101520106</t>
+  </si>
+  <si>
+    <t>NAR101520107</t>
+  </si>
+  <si>
+    <t>NAR101620001</t>
+  </si>
+  <si>
+    <t>NAR101620002</t>
+  </si>
+  <si>
+    <t>NAR101620003</t>
+  </si>
+  <si>
+    <t>NAR101620004</t>
+  </si>
+  <si>
+    <t>NAR101620005</t>
+  </si>
+  <si>
+    <t>NAR101620006</t>
+  </si>
+  <si>
+    <t>NAR101620007</t>
+  </si>
+  <si>
+    <t>NAR101620008</t>
+  </si>
+  <si>
+    <t>NAR101620009</t>
+  </si>
+  <si>
+    <t>NAR101620010</t>
+  </si>
+  <si>
+    <t>NAR101620011</t>
+  </si>
+  <si>
+    <t>NAR101620012</t>
+  </si>
+  <si>
+    <t>NAR101620013</t>
+  </si>
+  <si>
+    <t>NAR101620014</t>
+  </si>
+  <si>
+    <t>NAR101720023</t>
+  </si>
+  <si>
+    <t>NAR101720001</t>
+  </si>
+  <si>
+    <t>NAR101720002</t>
+  </si>
+  <si>
+    <t>NAR101720003</t>
+  </si>
+  <si>
+    <t>NAR101720004</t>
+  </si>
+  <si>
+    <t>NAR101720005</t>
+  </si>
+  <si>
+    <t>NAR101720006</t>
+  </si>
+  <si>
+    <t>NAR101720007</t>
+  </si>
+  <si>
+    <t>NAR101720008</t>
+  </si>
+  <si>
+    <t>NAR101720009</t>
+  </si>
+  <si>
+    <t>NAR101720010</t>
+  </si>
+  <si>
+    <t>NAR101720011</t>
+  </si>
+  <si>
+    <t>NAR101720012</t>
+  </si>
+  <si>
+    <t>NAR101720013</t>
+  </si>
+  <si>
+    <t>NAR101720014</t>
+  </si>
+  <si>
+    <t>NAR101720015</t>
+  </si>
+  <si>
+    <t>NAR101720016</t>
+  </si>
+  <si>
+    <t>NAR101720017</t>
+  </si>
+  <si>
+    <t>NAR101720018</t>
+  </si>
+  <si>
+    <t>NAR101720019</t>
+  </si>
+  <si>
+    <t>NAR101720020</t>
+  </si>
+  <si>
+    <t>NAR101720021</t>
+  </si>
+  <si>
+    <t>NAR101720022</t>
+  </si>
+  <si>
+    <t>NAR101820046</t>
+  </si>
+  <si>
+    <t>NAR101820001</t>
+  </si>
+  <si>
+    <t>NAR101820002</t>
+  </si>
+  <si>
+    <t>NAR101820003</t>
+  </si>
+  <si>
+    <t>NAR101820004</t>
+  </si>
+  <si>
+    <t>NAR101820005</t>
+  </si>
+  <si>
+    <t>NAR101820006</t>
+  </si>
+  <si>
+    <t>NAR101820007</t>
+  </si>
+  <si>
+    <t>NAR101820008</t>
+  </si>
+  <si>
+    <t>NAR101820009</t>
+  </si>
+  <si>
+    <t>NAR101820010</t>
+  </si>
+  <si>
+    <t>NAR101820011</t>
+  </si>
+  <si>
+    <t>NAR101820012</t>
+  </si>
+  <si>
+    <t>NAR101820013</t>
+  </si>
+  <si>
+    <t>NAR101820014</t>
+  </si>
+  <si>
+    <t>NAR101820015</t>
+  </si>
+  <si>
+    <t>NAR101820016</t>
+  </si>
+  <si>
+    <t>NAR101820017</t>
+  </si>
+  <si>
+    <t>NAR101820018</t>
+  </si>
+  <si>
+    <t>NAR101820019</t>
+  </si>
+  <si>
+    <t>NAR101820020</t>
+  </si>
+  <si>
+    <t>NAR101820021</t>
+  </si>
+  <si>
+    <t>NAR101820022</t>
+  </si>
+  <si>
+    <t>NAR101820023</t>
+  </si>
+  <si>
+    <t>NAR101820024</t>
+  </si>
+  <si>
+    <t>NAR101820025</t>
+  </si>
+  <si>
+    <t>NAR101820026</t>
+  </si>
+  <si>
+    <t>NAR101820027</t>
+  </si>
+  <si>
+    <t>NAR101820028</t>
+  </si>
+  <si>
+    <t>NAR101820029</t>
+  </si>
+  <si>
+    <t>NAR101820030</t>
+  </si>
+  <si>
+    <t>NAR101820031</t>
+  </si>
+  <si>
+    <t>NAR101820032</t>
+  </si>
+  <si>
+    <t>NAR101820033</t>
+  </si>
+  <si>
+    <t>NAR101820034</t>
+  </si>
+  <si>
+    <t>NAR101820035</t>
+  </si>
+  <si>
+    <t>NAR101820036</t>
+  </si>
+  <si>
+    <t>NAR101820037</t>
+  </si>
+  <si>
+    <t>NAR101820038</t>
+  </si>
+  <si>
+    <t>NAR101820039</t>
+  </si>
+  <si>
+    <t>NAR101820040</t>
+  </si>
+  <si>
+    <t>NAR101820041</t>
+  </si>
+  <si>
+    <t>NAR101820042</t>
+  </si>
+  <si>
+    <t>NAR101820043</t>
+  </si>
+  <si>
+    <t>NAR101820044</t>
+  </si>
+  <si>
+    <t>NAR101820045</t>
+  </si>
+  <si>
+    <t>altid</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-001</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-002</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-003</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-004</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-005</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-006</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-007</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-008</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-009</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-010</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-011</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-012</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-013</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-014</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-015</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-016</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-017</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-018</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-019</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-020</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-021</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-022</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-023</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-024</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-025</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-026</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-027</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-028</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-029</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-030</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-031</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-032</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-033</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-034</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-035</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-036</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-037</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-038</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-039</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-040</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-041</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-042</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-043</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-044</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-045</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-046</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-047</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-048</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-049</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-050</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-051</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-052</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-053</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-054</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-055</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-056</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-057</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-058</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-059</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-060</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-061</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-062</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-063</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-064</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-065</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-066</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-067</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-068</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-069</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-070</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-071</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-072</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-073</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-074</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-075</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-076</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-077</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-078</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-079</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-080</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-081</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-082</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-083</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-084</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-085</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-086</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-087</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-088</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-089</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-090</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-091</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-092</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-093</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-094</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-095</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-096</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-097</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-098</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-099</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-100</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-101</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-102</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-103</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-104</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-105</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-106</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-107</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-108</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-109</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-110</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-111</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-112</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-113</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-114</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-115</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-116</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-117</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-118</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-119</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-120</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-121</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-122</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-123</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-124</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-125</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-126</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-127</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-128</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-129</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-130</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-131</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-132</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-133</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-134</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-135</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-136</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-137</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-138</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-139</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-140</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-141</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-142</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-143</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-144</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-145</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-146</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-147</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-148</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-149</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-150</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-151</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-152</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-153</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-154</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-155</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-156</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-157</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-158</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-159</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-160</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-161</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-162</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-163</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-164</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-165</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-166</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-167</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-168</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-169</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-170</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-171</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-172</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-173</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-174</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-175</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-176</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-177</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-178</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-179</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-180</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-181</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-182</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-183</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-184</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-185</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-186</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-187</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-188</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-189</t>
+  </si>
+  <si>
+    <t>NAR-OCT-2020-190</t>
   </si>
 </sst>
 </file>
@@ -634,19 +1561,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D338"/>
+  <dimension ref="A1:E338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +1587,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -673,8 +1604,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -687,8 +1621,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -701,8 +1638,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -715,8 +1655,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -729,8 +1672,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -743,8 +1689,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -757,8 +1706,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -771,8 +1723,11 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -785,8 +1740,11 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -799,8 +1757,11 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -813,8 +1774,11 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -827,8 +1791,11 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -841,8 +1808,11 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -855,8 +1825,11 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -869,8 +1842,11 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -883,8 +1859,11 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -897,8 +1876,11 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -911,8 +1893,11 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -925,8 +1910,11 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -939,8 +1927,11 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -953,8 +1944,11 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -967,8 +1961,11 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -981,8 +1978,11 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -995,8 +1995,11 @@
       <c r="D25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1009,8 +2012,11 @@
       <c r="D26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1023,8 +2029,11 @@
       <c r="D27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1037,8 +2046,11 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1051,8 +2063,11 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1065,8 +2080,11 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1079,8 +2097,11 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1093,8 +2114,11 @@
       <c r="D32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1107,8 +2131,11 @@
       <c r="D33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1121,8 +2148,11 @@
       <c r="D34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1135,8 +2165,11 @@
       <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1149,8 +2182,11 @@
       <c r="D36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1163,8 +2199,11 @@
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1177,8 +2216,11 @@
       <c r="D38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1191,8 +2233,11 @@
       <c r="D39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1205,8 +2250,11 @@
       <c r="D40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1219,8 +2267,11 @@
       <c r="D41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1233,8 +2284,11 @@
       <c r="D42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1247,8 +2301,11 @@
       <c r="D43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1261,8 +2318,11 @@
       <c r="D44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1275,8 +2335,11 @@
       <c r="D45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1289,10 +2352,30 @@
       <c r="D46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -1303,10 +2386,13 @@
       <c r="D48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -1317,10 +2403,13 @@
       <c r="D49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -1331,10 +2420,13 @@
       <c r="D50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -1345,10 +2437,13 @@
       <c r="D51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1359,10 +2454,13 @@
       <c r="D52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -1373,10 +2471,13 @@
       <c r="D53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -1387,10 +2488,13 @@
       <c r="D54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -1401,10 +2505,13 @@
       <c r="D55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -1415,10 +2522,13 @@
       <c r="D56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -1429,10 +2539,13 @@
       <c r="D57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -1443,10 +2556,13 @@
       <c r="D58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -1457,10 +2573,13 @@
       <c r="D59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -1471,10 +2590,13 @@
       <c r="D60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -1485,10 +2607,13 @@
       <c r="D61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -1499,10 +2624,13 @@
       <c r="D62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -1513,10 +2641,13 @@
       <c r="D63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -1527,10 +2658,13 @@
       <c r="D64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -1541,10 +2675,13 @@
       <c r="D65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -1555,10 +2692,13 @@
       <c r="D66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1569,10 +2709,13 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -1583,10 +2726,13 @@
       <c r="D68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -1597,10 +2743,13 @@
       <c r="D69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -1611,10 +2760,13 @@
       <c r="D70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -1625,10 +2777,13 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -1639,10 +2794,13 @@
       <c r="D72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -1653,10 +2811,13 @@
       <c r="D73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -1666,6 +2827,1998 @@
       </c>
       <c r="D74" t="s">
         <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>128</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+      <c r="E170" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+      <c r="E174" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+      <c r="E175" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -1783,21 +4936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B867E9D7F32E45489B1C7C69979B644D" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="772cbc66b4e03ebe4a6feb88bfb7f7cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac7321bc-394f-4183-b398-e3bd3cc6b739" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c284b7c3d10beb7fe0aa7c1c5a4308f" ns2:_="">
     <xsd:import namespace="ac7321bc-394f-4183-b398-e3bd3cc6b739"/>
@@ -1961,31 +5099,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF0335D-52D7-490C-9E50-1F6B6B21B633}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775767D0-25B4-47E9-A7EF-066370498BD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7300FE0-C228-4662-A3F6-11FF4B642789}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2001,4 +5130,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775767D0-25B4-47E9-A7EF-066370498BD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF0335D-52D7-490C-9E50-1F6B6B21B633}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="470cd599-0db8-4bbd-8fac-7b71c5a69bfc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>